--- a/lab5/Task1Results.xlsx
+++ b/lab5/Task1Results.xlsx
@@ -426,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -647,36 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -784,34 +754,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,10 +772,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,71 +1139,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1228,7 @@
       <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1286,10 +1254,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -1316,7 +1284,7 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>18.0932</v>
       </c>
       <c r="L4" s="1">
@@ -1342,10 +1310,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="1">
@@ -1372,7 +1340,7 @@
       <c r="J5" s="2">
         <v>1.0791200000000001</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>15.311199999999999</v>
       </c>
       <c r="L5" s="1">
@@ -1398,8 +1366,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="1">
@@ -1426,7 +1394,7 @@
       <c r="J6" s="2">
         <v>1.15282</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>14.772399999999999</v>
       </c>
       <c r="L6" s="1">
@@ -1452,8 +1420,8 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="1">
@@ -1480,7 +1448,7 @@
       <c r="J7" s="2">
         <v>1.1899599999999999</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>14.405900000000001</v>
       </c>
       <c r="L7" s="1">
@@ -1506,10 +1474,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="1">
@@ -1536,7 +1504,7 @@
       <c r="J8" s="2">
         <v>0.82394000000000001</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>20.854800000000001</v>
       </c>
       <c r="L8" s="1">
@@ -1562,8 +1530,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="1">
@@ -1590,7 +1558,7 @@
       <c r="J9" s="2">
         <v>0.917717</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>18.004300000000001</v>
       </c>
       <c r="L9" s="1">
@@ -1616,8 +1584,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="1">
@@ -1644,7 +1612,7 @@
       <c r="J10" s="2">
         <v>1.00532</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>16.377700000000001</v>
       </c>
       <c r="L10" s="1">
@@ -1670,10 +1638,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -1700,7 +1668,7 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>17.607800000000001</v>
       </c>
       <c r="L11" s="1">
@@ -1726,10 +1694,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -1756,7 +1724,7 @@
       <c r="J12" s="2">
         <v>1.13744</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>15.736499999999999</v>
       </c>
       <c r="L12" s="1">
@@ -1782,8 +1750,8 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -1810,7 +1778,7 @@
       <c r="J13" s="2">
         <v>1.1822299999999999</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>14.6275</v>
       </c>
       <c r="L13" s="1">
@@ -1836,8 +1804,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="1">
@@ -1864,7 +1832,7 @@
       <c r="J14" s="2">
         <v>1.21973</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>14.132899999999999</v>
       </c>
       <c r="L14" s="1">
@@ -1890,10 +1858,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -1920,7 +1888,7 @@
       <c r="J15" s="2">
         <v>0.798786</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>20.483599999999999</v>
       </c>
       <c r="L15" s="1">
@@ -1946,8 +1914,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -1974,7 +1942,7 @@
       <c r="J16" s="2">
         <v>0.84820700000000004</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>18.020700000000001</v>
       </c>
       <c r="L16" s="1">
@@ -2000,8 +1968,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3">
         <v>4</v>
       </c>
       <c r="C17" s="1">
@@ -2028,7 +1996,7 @@
       <c r="J17" s="2">
         <v>0.92338900000000002</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>16.451799999999999</v>
       </c>
       <c r="L17" s="1">
@@ -2054,10 +2022,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -2084,7 +2052,7 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>148.69999999999999</v>
       </c>
       <c r="L18" s="1">
@@ -2110,10 +2078,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="1">
@@ -2140,7 +2108,7 @@
       <c r="J19" s="2">
         <v>1.62954</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>97.347099999999998</v>
       </c>
       <c r="L19" s="1">
@@ -2166,8 +2134,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3">
         <v>3</v>
       </c>
       <c r="C20" s="1">
@@ -2194,7 +2162,7 @@
       <c r="J20" s="2">
         <v>2.1476899999999999</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <v>64.267399999999995</v>
       </c>
       <c r="L20" s="1">
@@ -2220,8 +2188,8 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="1">
@@ -2248,7 +2216,7 @@
       <c r="J21" s="2">
         <v>1.1727099999999999</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>194.77099999999999</v>
       </c>
       <c r="L21" s="1">
@@ -2274,10 +2242,10 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="1">
@@ -2304,7 +2272,7 @@
       <c r="J22" s="2">
         <v>16.165800000000001</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <v>26.389800000000001</v>
       </c>
       <c r="L22" s="1">
@@ -2330,8 +2298,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="1">
@@ -2358,7 +2326,7 @@
       <c r="J23" s="2">
         <v>17.318100000000001</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>24.636800000000001</v>
       </c>
       <c r="L23" s="1">
@@ -2384,8 +2352,8 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="1">
@@ -2412,7 +2380,7 @@
       <c r="J24" s="2">
         <v>17.5746</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>24.4178</v>
       </c>
       <c r="L24" s="1">
@@ -2438,10 +2406,10 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="1">
@@ -2468,7 +2436,7 @@
       <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="3">
         <v>8.3834999999999997</v>
       </c>
       <c r="L25" s="1">
@@ -2494,10 +2462,10 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="1">
@@ -2524,7 +2492,7 @@
       <c r="J26" s="2">
         <v>0.66654400000000003</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="3">
         <v>9.5181100000000001</v>
       </c>
       <c r="L26" s="1">
@@ -2550,8 +2518,8 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="1">
@@ -2578,7 +2546,7 @@
       <c r="J27" s="2">
         <v>0.94264700000000001</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="3">
         <v>8.5098500000000001</v>
       </c>
       <c r="L27" s="1">
@@ -2604,8 +2572,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="1">
@@ -2632,7 +2600,7 @@
       <c r="J28" s="2">
         <v>1.0959099999999999</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>8.5190999999999999</v>
       </c>
       <c r="L28" s="1">
@@ -2658,180 +2626,171 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29" s="1">
-        <v>23.8627</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.351302</v>
-      </c>
-      <c r="E29" s="1">
-        <v>40.192100000000003</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.40592499999999998</v>
-      </c>
-      <c r="G29" s="1">
-        <v>57.224299999999999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.472553</v>
-      </c>
-      <c r="I29" s="1">
-        <v>84.419700000000006</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.53843799999999997</v>
-      </c>
-      <c r="K29" s="5">
-        <v>25.2242</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.33235999999999999</v>
-      </c>
-      <c r="M29" s="1">
-        <v>42.685899999999997</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.34786699999999998</v>
-      </c>
-      <c r="O29" s="1">
-        <v>62.411299999999997</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.40089599999999997</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>92.626599999999996</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.46099099999999998</v>
+      <c r="C29">
+        <v>6.5040199999999997</v>
+      </c>
+      <c r="D29">
+        <v>1.2315</v>
+      </c>
+      <c r="E29">
+        <v>13.323600000000001</v>
+      </c>
+      <c r="F29">
+        <v>1.31934</v>
+      </c>
+      <c r="G29">
+        <v>22.8264</v>
+      </c>
+      <c r="H29">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="I29">
+        <v>39.6175</v>
+      </c>
+      <c r="J29">
+        <v>1.3367599999999999</v>
+      </c>
+      <c r="K29">
+        <v>9.3426899999999993</v>
+      </c>
+      <c r="L29">
+        <v>1.66957</v>
+      </c>
+      <c r="M29">
+        <v>18.984400000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.7697400000000001</v>
+      </c>
+      <c r="O29">
+        <v>32.683599999999998</v>
+      </c>
+      <c r="P29">
+        <v>1.82233</v>
+      </c>
+      <c r="Q29">
+        <v>54.647399999999998</v>
+      </c>
+      <c r="R29">
+        <v>1.91214</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="1">
-        <v>22.576799999999999</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.371311</v>
-      </c>
-      <c r="E30" s="1">
-        <v>37.143799999999999</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.43923800000000002</v>
-      </c>
-      <c r="G30" s="1">
-        <v>52.9696</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.51050899999999999</v>
-      </c>
-      <c r="I30" s="1">
-        <v>76.854399999999998</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.59143900000000005</v>
-      </c>
-      <c r="K30" s="5">
-        <v>23.1526</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.36209799999999998</v>
-      </c>
-      <c r="M30" s="1">
-        <v>39.131</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.37946999999999997</v>
-      </c>
-      <c r="O30" s="1">
-        <v>58.195999999999998</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.42993399999999998</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>87.486000000000004</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0.48807800000000001</v>
+      <c r="C30">
+        <v>5.2199400000000002</v>
+      </c>
+      <c r="D30">
+        <v>1.53444</v>
+      </c>
+      <c r="E30">
+        <v>9.4791100000000004</v>
+      </c>
+      <c r="F30">
+        <v>1.85442</v>
+      </c>
+      <c r="G30">
+        <v>16.637899999999998</v>
+      </c>
+      <c r="H30">
+        <v>1.83253</v>
+      </c>
+      <c r="I30">
+        <v>28.4495</v>
+      </c>
+      <c r="J30">
+        <v>1.8615200000000001</v>
+      </c>
+      <c r="K30">
+        <v>8.7255500000000001</v>
+      </c>
+      <c r="L30">
+        <v>1.78765</v>
+      </c>
+      <c r="M30">
+        <v>16.732299999999999</v>
+      </c>
+      <c r="N30">
+        <v>2.0079400000000001</v>
+      </c>
+      <c r="O30">
+        <v>28.710899999999999</v>
+      </c>
+      <c r="P30">
+        <v>2.0744799999999999</v>
+      </c>
+      <c r="Q30">
+        <v>50.014699999999998</v>
+      </c>
+      <c r="R30">
+        <v>2.0892499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="3">
-        <v>21.922999999999998</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.38238299999999997</v>
-      </c>
-      <c r="E31" s="3">
-        <v>35.807200000000002</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.45563399999999998</v>
-      </c>
-      <c r="G31" s="3">
-        <v>49.764499999999998</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.54338900000000001</v>
-      </c>
-      <c r="I31" s="3">
-        <v>73.191500000000005</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.62103900000000001</v>
-      </c>
-      <c r="K31" s="6">
-        <v>22.622199999999999</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.370587</v>
-      </c>
-      <c r="M31" s="3">
-        <v>37.661200000000001</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.39428000000000002</v>
-      </c>
-      <c r="O31" s="3">
-        <v>55.944299999999998</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0.44723800000000002</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>84.400099999999995</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0.50592400000000004</v>
+      <c r="C31">
+        <v>4.2396599999999998</v>
+      </c>
+      <c r="D31">
+        <v>1.88923</v>
+      </c>
+      <c r="E31">
+        <v>8.5422999999999991</v>
+      </c>
+      <c r="F31">
+        <v>2.0577999999999999</v>
+      </c>
+      <c r="G31">
+        <v>14.9086</v>
+      </c>
+      <c r="H31">
+        <v>2.0450900000000001</v>
+      </c>
+      <c r="I31">
+        <v>25.5656</v>
+      </c>
+      <c r="J31">
+        <v>2.07151</v>
+      </c>
+      <c r="K31">
+        <v>7.6923500000000002</v>
+      </c>
+      <c r="L31">
+        <v>2.0277599999999998</v>
+      </c>
+      <c r="M31">
+        <v>16.004000000000001</v>
+      </c>
+      <c r="N31">
+        <v>2.09931</v>
+      </c>
+      <c r="O31">
+        <v>28.051300000000001</v>
+      </c>
+      <c r="P31">
+        <v>2.1232600000000001</v>
+      </c>
+      <c r="Q31">
+        <v>48.166400000000003</v>
+      </c>
+      <c r="R31">
+        <v>2.1694200000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A26:A28"/>
@@ -2843,8 +2802,113 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C10">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C24">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C31">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E31">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G31">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:I31">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K31">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -2856,7 +2920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C17">
+  <conditionalFormatting sqref="M25:M31">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -2868,7 +2932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
+  <conditionalFormatting sqref="O25:O31">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -2880,7 +2944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C24">
+  <conditionalFormatting sqref="Q25:Q31">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2892,7 +2956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
+  <conditionalFormatting sqref="Q18:Q24">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -2904,7 +2968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E31">
+  <conditionalFormatting sqref="O18:O24">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -2916,7 +2980,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G31">
+  <conditionalFormatting sqref="M18:M24">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -2928,7 +2992,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I31">
+  <conditionalFormatting sqref="K18:K24">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -2940,7 +3004,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K31">
+  <conditionalFormatting sqref="I18:I24">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -2952,7 +3016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M31">
+  <conditionalFormatting sqref="G18:G24">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -2964,7 +3028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O31">
+  <conditionalFormatting sqref="E18:E24">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2976,7 +3040,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:Q31">
+  <conditionalFormatting sqref="E11:E17">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2988,7 +3052,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:Q24">
+  <conditionalFormatting sqref="G11:G17">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -3000,7 +3064,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O24">
+  <conditionalFormatting sqref="G4:G10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3012,7 +3076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M24">
+  <conditionalFormatting sqref="E4:E10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3024,7 +3088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K24">
+  <conditionalFormatting sqref="I4:I10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -3036,7 +3100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I24">
+  <conditionalFormatting sqref="I11:I17">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -3048,7 +3112,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G24">
+  <conditionalFormatting sqref="K11:K17">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3060,7 +3124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E24">
+  <conditionalFormatting sqref="M11:M17">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3072,7 +3136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E17">
+  <conditionalFormatting sqref="O11:O17">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3084,7 +3148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G17">
+  <conditionalFormatting sqref="Q11:Q17">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3096,7 +3160,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G10">
+  <conditionalFormatting sqref="O4:O10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3108,7 +3172,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E10">
+  <conditionalFormatting sqref="M4:M10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3120,7 +3184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I10">
+  <conditionalFormatting sqref="K4:K10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3132,7 +3196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I17">
+  <conditionalFormatting sqref="Q4:Q10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3144,188 +3208,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K17">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M17">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11:O17">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q17">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M10">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K10">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R4:R31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D31">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P31">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L31">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F31">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D31">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
